--- a/final/data/sphr_concert_revenue_data.xlsx
+++ b/final/data/sphr_concert_revenue_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,43 +552,43 @@
         <v>45319</v>
       </c>
       <c r="E2" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F2" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M2" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N2" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O2" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P2" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q2" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -618,43 +618,43 @@
         <v>45340</v>
       </c>
       <c r="E3" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F3" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M3" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N3" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O3" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P3" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q3" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -684,43 +684,43 @@
         <v>45318</v>
       </c>
       <c r="E4" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F4" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M4" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N4" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O4" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P4" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q4" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>45326</v>
       </c>
       <c r="E5" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F5" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M5" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N5" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O5" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P5" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q5" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -816,43 +816,43 @@
         <v>45354</v>
       </c>
       <c r="E6" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F6" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M6" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N6" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O6" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P6" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q6" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -882,43 +882,43 @@
         <v>45341</v>
       </c>
       <c r="E7" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F7" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M7" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N7" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O7" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P7" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q7" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -948,43 +948,43 @@
         <v>45323</v>
       </c>
       <c r="E8" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F8" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M8" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N8" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O8" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P8" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q8" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1014,43 +1014,43 @@
         <v>45338</v>
       </c>
       <c r="E9" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F9" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M9" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N9" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O9" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P9" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q9" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1080,43 +1080,43 @@
         <v>45333</v>
       </c>
       <c r="E10" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F10" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M10" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N10" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O10" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P10" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q10" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1146,43 +1146,43 @@
         <v>45325</v>
       </c>
       <c r="E11" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F11" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M11" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N11" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O11" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P11" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q11" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1212,43 +1212,43 @@
         <v>45347</v>
       </c>
       <c r="E12" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F12" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M12" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N12" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O12" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P12" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q12" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1278,43 +1278,43 @@
         <v>45318</v>
       </c>
       <c r="E13" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F13" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M13" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N13" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O13" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P13" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q13" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1344,43 +1344,43 @@
         <v>45330</v>
       </c>
       <c r="E14" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F14" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M14" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N14" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O14" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P14" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q14" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1410,43 +1410,43 @@
         <v>45325</v>
       </c>
       <c r="E15" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F15" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M15" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N15" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O15" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P15" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q15" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1476,43 +1476,43 @@
         <v>45319</v>
       </c>
       <c r="E16" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F16" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M16" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N16" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O16" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P16" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q16" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1542,43 +1542,43 @@
         <v>45332</v>
       </c>
       <c r="E17" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F17" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M17" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N17" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O17" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P17" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q17" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1608,43 +1608,43 @@
         <v>45323</v>
       </c>
       <c r="E18" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F18" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M18" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N18" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O18" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P18" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q18" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1674,43 +1674,43 @@
         <v>45340</v>
       </c>
       <c r="E19" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F19" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M19" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N19" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O19" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P19" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q19" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -1740,43 +1740,43 @@
         <v>45346</v>
       </c>
       <c r="E20" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F20" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M20" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N20" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O20" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P20" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q20" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -1806,43 +1806,43 @@
         <v>45338</v>
       </c>
       <c r="E21" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F21" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M21" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N21" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O21" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P21" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q21" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -1872,43 +1872,43 @@
         <v>45326</v>
       </c>
       <c r="E22" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F22" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K22" t="n">
         <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M22" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N22" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O22" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P22" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q22" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -1938,43 +1938,43 @@
         <v>45346</v>
       </c>
       <c r="E23" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F23" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M23" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N23" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O23" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P23" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q23" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2004,43 +2004,43 @@
         <v>45341</v>
       </c>
       <c r="E24" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F24" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M24" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N24" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O24" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P24" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q24" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2070,43 +2070,43 @@
         <v>45353</v>
       </c>
       <c r="E25" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F25" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M25" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N25" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O25" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P25" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q25" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2136,43 +2136,43 @@
         <v>45330</v>
       </c>
       <c r="E26" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F26" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M26" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N26" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O26" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P26" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q26" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2202,43 +2202,43 @@
         <v>45353</v>
       </c>
       <c r="E27" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F27" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M27" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N27" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O27" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P27" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q27" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2268,43 +2268,43 @@
         <v>45332</v>
       </c>
       <c r="E28" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F28" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K28" t="n">
         <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M28" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N28" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O28" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P28" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q28" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2334,43 +2334,43 @@
         <v>45354</v>
       </c>
       <c r="E29" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F29" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K29" t="n">
         <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M29" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N29" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O29" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P29" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q29" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2400,43 +2400,43 @@
         <v>45333</v>
       </c>
       <c r="E30" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F30" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K30" t="n">
         <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M30" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N30" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O30" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P30" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q30" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2466,43 +2466,43 @@
         <v>45347</v>
       </c>
       <c r="E31" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F31" t="n">
-        <v>15906.1682823334</v>
+        <v>16700</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7953084141166699</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>18046.66666666667</v>
+        <v>16700</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9023333333333333</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>539694.0105884805</v>
+        <v>514397.1505764265</v>
       </c>
       <c r="M31" t="n">
-        <v>662452.2937266667</v>
+        <v>612761.7718333333</v>
       </c>
       <c r="N31" t="n">
-        <v>789712.3458455654</v>
+        <v>711126.3930902402</v>
       </c>
       <c r="O31" t="n">
-        <v>304988.6666666667</v>
+        <v>282230</v>
       </c>
       <c r="P31" t="n">
-        <v>496283.3333333334</v>
+        <v>459250</v>
       </c>
       <c r="Q31" t="n">
-        <v>687578</v>
+        <v>636270</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -2532,43 +2532,43 @@
         <v>45401</v>
       </c>
       <c r="E32" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F32" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K32" t="n">
         <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>295086.8570142751</v>
+        <v>223997.7505517452</v>
       </c>
       <c r="M32" t="n">
-        <v>301098.7466666667</v>
+        <v>228561.3213333334</v>
       </c>
       <c r="N32" t="n">
-        <v>307110.6363190583</v>
+        <v>233124.8921149215</v>
       </c>
       <c r="O32" t="n">
-        <v>338000</v>
+        <v>282230</v>
       </c>
       <c r="P32" t="n">
-        <v>550000</v>
+        <v>459250</v>
       </c>
       <c r="Q32" t="n">
-        <v>762000</v>
+        <v>636270</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -2598,43 +2598,43 @@
         <v>45403</v>
       </c>
       <c r="E33" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F33" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>295086.8570142751</v>
+        <v>223997.7505517452</v>
       </c>
       <c r="M33" t="n">
-        <v>301098.7466666667</v>
+        <v>228561.3213333334</v>
       </c>
       <c r="N33" t="n">
-        <v>307110.6363190583</v>
+        <v>233124.8921149215</v>
       </c>
       <c r="O33" t="n">
-        <v>338000</v>
+        <v>282230</v>
       </c>
       <c r="P33" t="n">
-        <v>550000</v>
+        <v>459250</v>
       </c>
       <c r="Q33" t="n">
-        <v>762000</v>
+        <v>636270</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -2664,43 +2664,43 @@
         <v>45402</v>
       </c>
       <c r="E34" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F34" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K34" t="n">
         <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>295086.8570142751</v>
+        <v>223997.7505517452</v>
       </c>
       <c r="M34" t="n">
-        <v>301098.7466666667</v>
+        <v>228561.3213333334</v>
       </c>
       <c r="N34" t="n">
-        <v>307110.6363190583</v>
+        <v>233124.8921149215</v>
       </c>
       <c r="O34" t="n">
-        <v>338000</v>
+        <v>282230</v>
       </c>
       <c r="P34" t="n">
-        <v>550000</v>
+        <v>459250</v>
       </c>
       <c r="Q34" t="n">
-        <v>762000</v>
+        <v>636270</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -2730,43 +2730,43 @@
         <v>45404</v>
       </c>
       <c r="E35" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F35" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="K35" t="n">
         <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>295086.8570142751</v>
+        <v>223997.7505517452</v>
       </c>
       <c r="M35" t="n">
-        <v>301098.7466666667</v>
+        <v>228561.3213333334</v>
       </c>
       <c r="N35" t="n">
-        <v>307110.6363190583</v>
+        <v>233124.8921149215</v>
       </c>
       <c r="O35" t="n">
-        <v>338000</v>
+        <v>282230</v>
       </c>
       <c r="P35" t="n">
-        <v>550000</v>
+        <v>459250</v>
       </c>
       <c r="Q35" t="n">
-        <v>762000</v>
+        <v>636270</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -2796,43 +2796,43 @@
         <v>45428</v>
       </c>
       <c r="E36" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F36" t="n">
-        <v>17467.79715169339</v>
+        <v>16575.749171712</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8733898575846692</v>
+        <v>0.9925598306414372</v>
       </c>
       <c r="H36" t="n">
-        <v>18646.66666666666</v>
+        <v>16672.16666666667</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9323333333333332</v>
+        <v>0.9983333333333334</v>
       </c>
       <c r="J36" t="n">
-        <v>19825.53618163995</v>
+        <v>16700</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9912768090819972</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>542592.8278758113</v>
+        <v>571447.8520736976</v>
       </c>
       <c r="M36" t="n">
-        <v>631761.2367244443</v>
+        <v>772504.8425</v>
       </c>
       <c r="N36" t="n">
-        <v>727574.1979479883</v>
+        <v>971857.6088712635</v>
       </c>
       <c r="O36" t="n">
-        <v>315128.6666666666</v>
+        <v>281759.6166666667</v>
       </c>
       <c r="P36" t="n">
-        <v>512783.3333333333</v>
+        <v>458484.5833333334</v>
       </c>
       <c r="Q36" t="n">
-        <v>710437.9999999999</v>
+        <v>635209.55</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -2862,43 +2862,43 @@
         <v>45429</v>
       </c>
       <c r="E37" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F37" t="n">
-        <v>17467.79715169339</v>
+        <v>16575.749171712</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8733898575846692</v>
+        <v>0.9925598306414372</v>
       </c>
       <c r="H37" t="n">
-        <v>18646.66666666666</v>
+        <v>16672.16666666667</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9323333333333332</v>
+        <v>0.9983333333333334</v>
       </c>
       <c r="J37" t="n">
-        <v>19825.53618163995</v>
+        <v>16700</v>
       </c>
       <c r="K37" t="n">
-        <v>0.9912768090819972</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>542592.8278758113</v>
+        <v>571447.8520736976</v>
       </c>
       <c r="M37" t="n">
-        <v>631761.2367244443</v>
+        <v>772504.8425</v>
       </c>
       <c r="N37" t="n">
-        <v>727574.1979479883</v>
+        <v>971857.6088712635</v>
       </c>
       <c r="O37" t="n">
-        <v>315128.6666666666</v>
+        <v>281759.6166666667</v>
       </c>
       <c r="P37" t="n">
-        <v>512783.3333333333</v>
+        <v>458484.5833333334</v>
       </c>
       <c r="Q37" t="n">
-        <v>710437.9999999999</v>
+        <v>635209.55</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -2928,43 +2928,43 @@
         <v>45430</v>
       </c>
       <c r="E38" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F38" t="n">
-        <v>17467.79715169339</v>
+        <v>16575.749171712</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8733898575846692</v>
+        <v>0.9925598306414372</v>
       </c>
       <c r="H38" t="n">
-        <v>18646.66666666666</v>
+        <v>16672.16666666667</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9323333333333332</v>
+        <v>0.9983333333333334</v>
       </c>
       <c r="J38" t="n">
-        <v>19825.53618163995</v>
+        <v>16700</v>
       </c>
       <c r="K38" t="n">
-        <v>0.9912768090819972</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>542592.8278758113</v>
+        <v>571447.8520736976</v>
       </c>
       <c r="M38" t="n">
-        <v>631761.2367244443</v>
+        <v>772504.8425</v>
       </c>
       <c r="N38" t="n">
-        <v>727574.1979479883</v>
+        <v>971857.6088712635</v>
       </c>
       <c r="O38" t="n">
-        <v>315128.6666666666</v>
+        <v>281759.6166666667</v>
       </c>
       <c r="P38" t="n">
-        <v>512783.3333333333</v>
+        <v>458484.5833333334</v>
       </c>
       <c r="Q38" t="n">
-        <v>710437.9999999999</v>
+        <v>635209.55</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -2994,43 +2994,43 @@
         <v>45436</v>
       </c>
       <c r="E39" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F39" t="n">
-        <v>17467.79715169339</v>
+        <v>16575.749171712</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8733898575846692</v>
+        <v>0.9925598306414372</v>
       </c>
       <c r="H39" t="n">
-        <v>18646.66666666666</v>
+        <v>16672.16666666667</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9323333333333332</v>
+        <v>0.9983333333333334</v>
       </c>
       <c r="J39" t="n">
-        <v>19825.53618163995</v>
+        <v>16700</v>
       </c>
       <c r="K39" t="n">
-        <v>0.9912768090819972</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>542592.8278758113</v>
+        <v>571447.8520736976</v>
       </c>
       <c r="M39" t="n">
-        <v>631761.2367244443</v>
+        <v>772504.8425</v>
       </c>
       <c r="N39" t="n">
-        <v>727574.1979479883</v>
+        <v>971857.6088712635</v>
       </c>
       <c r="O39" t="n">
-        <v>315128.6666666666</v>
+        <v>281759.6166666667</v>
       </c>
       <c r="P39" t="n">
-        <v>512783.3333333333</v>
+        <v>458484.5833333334</v>
       </c>
       <c r="Q39" t="n">
-        <v>710437.9999999999</v>
+        <v>635209.55</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3060,43 +3060,43 @@
         <v>45437</v>
       </c>
       <c r="E40" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F40" t="n">
-        <v>17467.79715169339</v>
+        <v>16575.749171712</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8733898575846692</v>
+        <v>0.9925598306414372</v>
       </c>
       <c r="H40" t="n">
-        <v>18646.66666666666</v>
+        <v>16672.16666666667</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9323333333333332</v>
+        <v>0.9983333333333334</v>
       </c>
       <c r="J40" t="n">
-        <v>19825.53618163995</v>
+        <v>16700</v>
       </c>
       <c r="K40" t="n">
-        <v>0.9912768090819972</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>542592.8278758113</v>
+        <v>571447.8520736976</v>
       </c>
       <c r="M40" t="n">
-        <v>631761.2367244443</v>
+        <v>772504.8425</v>
       </c>
       <c r="N40" t="n">
-        <v>727574.1979479883</v>
+        <v>971857.6088712635</v>
       </c>
       <c r="O40" t="n">
-        <v>315128.6666666666</v>
+        <v>281759.6166666667</v>
       </c>
       <c r="P40" t="n">
-        <v>512783.3333333333</v>
+        <v>458484.5833333334</v>
       </c>
       <c r="Q40" t="n">
-        <v>710437.9999999999</v>
+        <v>635209.55</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3126,43 +3126,43 @@
         <v>45438</v>
       </c>
       <c r="E41" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F41" t="n">
-        <v>17467.79715169339</v>
+        <v>16575.749171712</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8733898575846692</v>
+        <v>0.9925598306414372</v>
       </c>
       <c r="H41" t="n">
-        <v>18646.66666666666</v>
+        <v>16672.16666666667</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9323333333333332</v>
+        <v>0.9983333333333334</v>
       </c>
       <c r="J41" t="n">
-        <v>19825.53618163995</v>
+        <v>16700</v>
       </c>
       <c r="K41" t="n">
-        <v>0.9912768090819972</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>542592.8278758113</v>
+        <v>571447.8520736976</v>
       </c>
       <c r="M41" t="n">
-        <v>631761.2367244443</v>
+        <v>772504.8425</v>
       </c>
       <c r="N41" t="n">
-        <v>727574.1979479883</v>
+        <v>971857.6088712635</v>
       </c>
       <c r="O41" t="n">
-        <v>315128.6666666666</v>
+        <v>281759.6166666667</v>
       </c>
       <c r="P41" t="n">
-        <v>512783.3333333333</v>
+        <v>458484.5833333334</v>
       </c>
       <c r="Q41" t="n">
-        <v>710437.9999999999</v>
+        <v>635209.55</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3192,43 +3192,43 @@
         <v>45442</v>
       </c>
       <c r="E42" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F42" t="n">
-        <v>17467.79715169339</v>
+        <v>16575.749171712</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8733898575846692</v>
+        <v>0.9925598306414372</v>
       </c>
       <c r="H42" t="n">
-        <v>18646.66666666666</v>
+        <v>16672.16666666667</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9323333333333332</v>
+        <v>0.9983333333333334</v>
       </c>
       <c r="J42" t="n">
-        <v>19825.53618163995</v>
+        <v>16700</v>
       </c>
       <c r="K42" t="n">
-        <v>0.9912768090819972</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>542592.8278758113</v>
+        <v>571447.8520736976</v>
       </c>
       <c r="M42" t="n">
-        <v>631761.2367244443</v>
+        <v>772504.8425</v>
       </c>
       <c r="N42" t="n">
-        <v>727574.1979479883</v>
+        <v>971857.6088712635</v>
       </c>
       <c r="O42" t="n">
-        <v>315128.6666666666</v>
+        <v>281759.6166666667</v>
       </c>
       <c r="P42" t="n">
-        <v>512783.3333333333</v>
+        <v>458484.5833333334</v>
       </c>
       <c r="Q42" t="n">
-        <v>710437.9999999999</v>
+        <v>635209.55</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3258,43 +3258,43 @@
         <v>45443</v>
       </c>
       <c r="E43" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F43" t="n">
-        <v>17467.79715169339</v>
+        <v>16575.749171712</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8733898575846692</v>
+        <v>0.9925598306414372</v>
       </c>
       <c r="H43" t="n">
-        <v>18646.66666666666</v>
+        <v>16672.16666666667</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9323333333333332</v>
+        <v>0.9983333333333334</v>
       </c>
       <c r="J43" t="n">
-        <v>19825.53618163995</v>
+        <v>16700</v>
       </c>
       <c r="K43" t="n">
-        <v>0.9912768090819972</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
-        <v>542592.8278758113</v>
+        <v>571447.8520736976</v>
       </c>
       <c r="M43" t="n">
-        <v>631761.2367244443</v>
+        <v>772504.8425</v>
       </c>
       <c r="N43" t="n">
-        <v>727574.1979479883</v>
+        <v>971857.6088712635</v>
       </c>
       <c r="O43" t="n">
-        <v>315128.6666666666</v>
+        <v>281759.6166666667</v>
       </c>
       <c r="P43" t="n">
-        <v>512783.3333333333</v>
+        <v>458484.5833333334</v>
       </c>
       <c r="Q43" t="n">
-        <v>710437.9999999999</v>
+        <v>635209.55</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3324,43 +3324,43 @@
         <v>45444</v>
       </c>
       <c r="E44" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F44" t="n">
-        <v>17467.79715169339</v>
+        <v>16575.749171712</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8733898575846692</v>
+        <v>0.9925598306414372</v>
       </c>
       <c r="H44" t="n">
-        <v>18646.66666666666</v>
+        <v>16672.16666666667</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9323333333333332</v>
+        <v>0.9983333333333334</v>
       </c>
       <c r="J44" t="n">
-        <v>19825.53618163995</v>
+        <v>16700</v>
       </c>
       <c r="K44" t="n">
-        <v>0.9912768090819972</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>542592.8278758113</v>
+        <v>571447.8520736976</v>
       </c>
       <c r="M44" t="n">
-        <v>631761.2367244443</v>
+        <v>772504.8425</v>
       </c>
       <c r="N44" t="n">
-        <v>727574.1979479883</v>
+        <v>971857.6088712635</v>
       </c>
       <c r="O44" t="n">
-        <v>315128.6666666666</v>
+        <v>281759.6166666667</v>
       </c>
       <c r="P44" t="n">
-        <v>512783.3333333333</v>
+        <v>458484.5833333334</v>
       </c>
       <c r="Q44" t="n">
-        <v>710437.9999999999</v>
+        <v>635209.55</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -3390,43 +3390,43 @@
         <v>45449</v>
       </c>
       <c r="E45" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F45" t="n">
-        <v>17467.79715169339</v>
+        <v>16575.749171712</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8733898575846692</v>
+        <v>0.9925598306414372</v>
       </c>
       <c r="H45" t="n">
-        <v>18646.66666666666</v>
+        <v>16672.16666666667</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9323333333333332</v>
+        <v>0.9983333333333334</v>
       </c>
       <c r="J45" t="n">
-        <v>19825.53618163995</v>
+        <v>16700</v>
       </c>
       <c r="K45" t="n">
-        <v>0.9912768090819972</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
-        <v>542592.8278758113</v>
+        <v>571447.8520736976</v>
       </c>
       <c r="M45" t="n">
-        <v>631761.2367244443</v>
+        <v>772504.8425</v>
       </c>
       <c r="N45" t="n">
-        <v>727574.1979479883</v>
+        <v>971857.6088712635</v>
       </c>
       <c r="O45" t="n">
-        <v>315128.6666666666</v>
+        <v>281759.6166666667</v>
       </c>
       <c r="P45" t="n">
-        <v>512783.3333333333</v>
+        <v>458484.5833333334</v>
       </c>
       <c r="Q45" t="n">
-        <v>710437.9999999999</v>
+        <v>635209.55</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -3456,43 +3456,43 @@
         <v>45450</v>
       </c>
       <c r="E46" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F46" t="n">
-        <v>17467.79715169339</v>
+        <v>16575.749171712</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8733898575846692</v>
+        <v>0.9925598306414372</v>
       </c>
       <c r="H46" t="n">
-        <v>18646.66666666666</v>
+        <v>16672.16666666667</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9323333333333332</v>
+        <v>0.9983333333333334</v>
       </c>
       <c r="J46" t="n">
-        <v>19825.53618163995</v>
+        <v>16700</v>
       </c>
       <c r="K46" t="n">
-        <v>0.9912768090819972</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>542592.8278758113</v>
+        <v>571447.8520736976</v>
       </c>
       <c r="M46" t="n">
-        <v>631761.2367244443</v>
+        <v>772504.8425</v>
       </c>
       <c r="N46" t="n">
-        <v>727574.1979479883</v>
+        <v>971857.6088712635</v>
       </c>
       <c r="O46" t="n">
-        <v>315128.6666666666</v>
+        <v>281759.6166666667</v>
       </c>
       <c r="P46" t="n">
-        <v>512783.3333333333</v>
+        <v>458484.5833333334</v>
       </c>
       <c r="Q46" t="n">
-        <v>710437.9999999999</v>
+        <v>635209.55</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -3522,43 +3522,43 @@
         <v>45451</v>
       </c>
       <c r="E47" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F47" t="n">
-        <v>17467.79715169339</v>
+        <v>16575.749171712</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8733898575846692</v>
+        <v>0.9925598306414372</v>
       </c>
       <c r="H47" t="n">
-        <v>18646.66666666666</v>
+        <v>16672.16666666667</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9323333333333332</v>
+        <v>0.9983333333333334</v>
       </c>
       <c r="J47" t="n">
-        <v>19825.53618163995</v>
+        <v>16700</v>
       </c>
       <c r="K47" t="n">
-        <v>0.9912768090819972</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>542592.8278758113</v>
+        <v>571447.8520736976</v>
       </c>
       <c r="M47" t="n">
-        <v>631761.2367244443</v>
+        <v>772504.8425</v>
       </c>
       <c r="N47" t="n">
-        <v>727574.1979479883</v>
+        <v>971857.6088712635</v>
       </c>
       <c r="O47" t="n">
-        <v>315128.6666666666</v>
+        <v>281759.6166666667</v>
       </c>
       <c r="P47" t="n">
-        <v>512783.3333333333</v>
+        <v>458484.5833333334</v>
       </c>
       <c r="Q47" t="n">
-        <v>710437.9999999999</v>
+        <v>635209.55</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -3588,43 +3588,43 @@
         <v>45456</v>
       </c>
       <c r="E48" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F48" t="n">
-        <v>17467.79715169339</v>
+        <v>16575.749171712</v>
       </c>
       <c r="G48" t="n">
-        <v>0.8733898575846692</v>
+        <v>0.9925598306414372</v>
       </c>
       <c r="H48" t="n">
-        <v>18646.66666666666</v>
+        <v>16672.16666666667</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9323333333333332</v>
+        <v>0.9983333333333334</v>
       </c>
       <c r="J48" t="n">
-        <v>19825.53618163995</v>
+        <v>16700</v>
       </c>
       <c r="K48" t="n">
-        <v>0.9912768090819972</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>542592.8278758113</v>
+        <v>571447.8520736976</v>
       </c>
       <c r="M48" t="n">
-        <v>631761.2367244443</v>
+        <v>772504.8425</v>
       </c>
       <c r="N48" t="n">
-        <v>727574.1979479883</v>
+        <v>971857.6088712635</v>
       </c>
       <c r="O48" t="n">
-        <v>315128.6666666666</v>
+        <v>281759.6166666667</v>
       </c>
       <c r="P48" t="n">
-        <v>512783.3333333333</v>
+        <v>458484.5833333334</v>
       </c>
       <c r="Q48" t="n">
-        <v>710437.9999999999</v>
+        <v>635209.55</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -3654,43 +3654,43 @@
         <v>45457</v>
       </c>
       <c r="E49" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F49" t="n">
-        <v>17467.79715169339</v>
+        <v>16575.749171712</v>
       </c>
       <c r="G49" t="n">
-        <v>0.8733898575846692</v>
+        <v>0.9925598306414372</v>
       </c>
       <c r="H49" t="n">
-        <v>18646.66666666666</v>
+        <v>16672.16666666667</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9323333333333332</v>
+        <v>0.9983333333333334</v>
       </c>
       <c r="J49" t="n">
-        <v>19825.53618163995</v>
+        <v>16700</v>
       </c>
       <c r="K49" t="n">
-        <v>0.9912768090819972</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
-        <v>542592.8278758113</v>
+        <v>571447.8520736976</v>
       </c>
       <c r="M49" t="n">
-        <v>631761.2367244443</v>
+        <v>772504.8425</v>
       </c>
       <c r="N49" t="n">
-        <v>727574.1979479883</v>
+        <v>971857.6088712635</v>
       </c>
       <c r="O49" t="n">
-        <v>315128.6666666666</v>
+        <v>281759.6166666667</v>
       </c>
       <c r="P49" t="n">
-        <v>512783.3333333333</v>
+        <v>458484.5833333334</v>
       </c>
       <c r="Q49" t="n">
-        <v>710437.9999999999</v>
+        <v>635209.55</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -3720,43 +3720,43 @@
         <v>45458</v>
       </c>
       <c r="E50" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F50" t="n">
-        <v>17467.79715169339</v>
+        <v>16575.749171712</v>
       </c>
       <c r="G50" t="n">
-        <v>0.8733898575846692</v>
+        <v>0.9925598306414372</v>
       </c>
       <c r="H50" t="n">
-        <v>18646.66666666666</v>
+        <v>16672.16666666667</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9323333333333332</v>
+        <v>0.9983333333333334</v>
       </c>
       <c r="J50" t="n">
-        <v>19825.53618163995</v>
+        <v>16700</v>
       </c>
       <c r="K50" t="n">
-        <v>0.9912768090819972</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>542592.8278758113</v>
+        <v>571447.8520736976</v>
       </c>
       <c r="M50" t="n">
-        <v>631761.2367244443</v>
+        <v>772504.8425</v>
       </c>
       <c r="N50" t="n">
-        <v>727574.1979479883</v>
+        <v>971857.6088712635</v>
       </c>
       <c r="O50" t="n">
-        <v>315128.6666666666</v>
+        <v>281759.6166666667</v>
       </c>
       <c r="P50" t="n">
-        <v>512783.3333333333</v>
+        <v>458484.5833333334</v>
       </c>
       <c r="Q50" t="n">
-        <v>710437.9999999999</v>
+        <v>635209.55</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -3786,43 +3786,43 @@
         <v>45463</v>
       </c>
       <c r="E51" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F51" t="n">
-        <v>17467.79715169339</v>
+        <v>16575.749171712</v>
       </c>
       <c r="G51" t="n">
-        <v>0.8733898575846692</v>
+        <v>0.9925598306414372</v>
       </c>
       <c r="H51" t="n">
-        <v>18646.66666666666</v>
+        <v>16672.16666666667</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9323333333333332</v>
+        <v>0.9983333333333334</v>
       </c>
       <c r="J51" t="n">
-        <v>19825.53618163995</v>
+        <v>16700</v>
       </c>
       <c r="K51" t="n">
-        <v>0.9912768090819972</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>542592.8278758113</v>
+        <v>571447.8520736976</v>
       </c>
       <c r="M51" t="n">
-        <v>631761.2367244443</v>
+        <v>772504.8425</v>
       </c>
       <c r="N51" t="n">
-        <v>727574.1979479883</v>
+        <v>971857.6088712635</v>
       </c>
       <c r="O51" t="n">
-        <v>315128.6666666666</v>
+        <v>281759.6166666667</v>
       </c>
       <c r="P51" t="n">
-        <v>512783.3333333333</v>
+        <v>458484.5833333334</v>
       </c>
       <c r="Q51" t="n">
-        <v>710437.9999999999</v>
+        <v>635209.55</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -3852,43 +3852,43 @@
         <v>45464</v>
       </c>
       <c r="E52" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F52" t="n">
-        <v>17467.79715169339</v>
+        <v>16575.749171712</v>
       </c>
       <c r="G52" t="n">
-        <v>0.8733898575846692</v>
+        <v>0.9925598306414372</v>
       </c>
       <c r="H52" t="n">
-        <v>18646.66666666666</v>
+        <v>16672.16666666667</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9323333333333332</v>
+        <v>0.9983333333333334</v>
       </c>
       <c r="J52" t="n">
-        <v>19825.53618163995</v>
+        <v>16700</v>
       </c>
       <c r="K52" t="n">
-        <v>0.9912768090819972</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
-        <v>542592.8278758113</v>
+        <v>571447.8520736976</v>
       </c>
       <c r="M52" t="n">
-        <v>631761.2367244443</v>
+        <v>772504.8425</v>
       </c>
       <c r="N52" t="n">
-        <v>727574.1979479883</v>
+        <v>971857.6088712635</v>
       </c>
       <c r="O52" t="n">
-        <v>315128.6666666666</v>
+        <v>281759.6166666667</v>
       </c>
       <c r="P52" t="n">
-        <v>512783.3333333333</v>
+        <v>458484.5833333334</v>
       </c>
       <c r="Q52" t="n">
-        <v>710437.9999999999</v>
+        <v>635209.55</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -3918,43 +3918,43 @@
         <v>45465</v>
       </c>
       <c r="E53" t="n">
-        <v>20000</v>
+        <v>16700</v>
       </c>
       <c r="F53" t="n">
-        <v>17467.79715169339</v>
+        <v>16575.749171712</v>
       </c>
       <c r="G53" t="n">
-        <v>0.8733898575846692</v>
+        <v>0.9925598306414372</v>
       </c>
       <c r="H53" t="n">
-        <v>18646.66666666666</v>
+        <v>16672.16666666667</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9323333333333332</v>
+        <v>0.9983333333333334</v>
       </c>
       <c r="J53" t="n">
-        <v>19825.53618163995</v>
+        <v>16700</v>
       </c>
       <c r="K53" t="n">
-        <v>0.9912768090819972</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>542592.8278758113</v>
+        <v>571447.8520736976</v>
       </c>
       <c r="M53" t="n">
-        <v>631761.2367244443</v>
+        <v>772504.8425</v>
       </c>
       <c r="N53" t="n">
-        <v>727574.1979479883</v>
+        <v>971857.6088712635</v>
       </c>
       <c r="O53" t="n">
-        <v>315128.6666666666</v>
+        <v>281759.6166666667</v>
       </c>
       <c r="P53" t="n">
-        <v>512783.3333333333</v>
+        <v>458484.5833333334</v>
       </c>
       <c r="Q53" t="n">
-        <v>710437.9999999999</v>
+        <v>635209.55</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -3963,6 +3963,402 @@
         <v>0</v>
       </c>
       <c r="T53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Dead&amp;Co</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Dead&amp;Co</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="E54" t="n">
+        <v>16700</v>
+      </c>
+      <c r="F54" t="n">
+        <v>16575.749171712</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.9925598306414372</v>
+      </c>
+      <c r="H54" t="n">
+        <v>16672.16666666667</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.9983333333333334</v>
+      </c>
+      <c r="J54" t="n">
+        <v>16700</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="n">
+        <v>571447.8520736976</v>
+      </c>
+      <c r="M54" t="n">
+        <v>772504.8425</v>
+      </c>
+      <c r="N54" t="n">
+        <v>971857.6088712635</v>
+      </c>
+      <c r="O54" t="n">
+        <v>281759.6166666667</v>
+      </c>
+      <c r="P54" t="n">
+        <v>458484.5833333334</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>635209.55</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Dead&amp;Co</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Dead&amp;Co</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="E55" t="n">
+        <v>16700</v>
+      </c>
+      <c r="F55" t="n">
+        <v>16575.749171712</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.9925598306414372</v>
+      </c>
+      <c r="H55" t="n">
+        <v>16672.16666666667</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.9983333333333334</v>
+      </c>
+      <c r="J55" t="n">
+        <v>16700</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="n">
+        <v>571447.8520736976</v>
+      </c>
+      <c r="M55" t="n">
+        <v>772504.8425</v>
+      </c>
+      <c r="N55" t="n">
+        <v>971857.6088712635</v>
+      </c>
+      <c r="O55" t="n">
+        <v>281759.6166666667</v>
+      </c>
+      <c r="P55" t="n">
+        <v>458484.5833333334</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>635209.55</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Dead&amp;Co</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Dead&amp;Co</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>45479</v>
+      </c>
+      <c r="E56" t="n">
+        <v>16700</v>
+      </c>
+      <c r="F56" t="n">
+        <v>16575.749171712</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.9925598306414372</v>
+      </c>
+      <c r="H56" t="n">
+        <v>16672.16666666667</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.9983333333333334</v>
+      </c>
+      <c r="J56" t="n">
+        <v>16700</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>571447.8520736976</v>
+      </c>
+      <c r="M56" t="n">
+        <v>772504.8425</v>
+      </c>
+      <c r="N56" t="n">
+        <v>971857.6088712635</v>
+      </c>
+      <c r="O56" t="n">
+        <v>281759.6166666667</v>
+      </c>
+      <c r="P56" t="n">
+        <v>458484.5833333334</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>635209.55</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Dead&amp;Co</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Dead&amp;Co</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="E57" t="n">
+        <v>16700</v>
+      </c>
+      <c r="F57" t="n">
+        <v>16575.749171712</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.9925598306414372</v>
+      </c>
+      <c r="H57" t="n">
+        <v>16672.16666666667</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.9983333333333334</v>
+      </c>
+      <c r="J57" t="n">
+        <v>16700</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>571447.8520736976</v>
+      </c>
+      <c r="M57" t="n">
+        <v>772504.8425</v>
+      </c>
+      <c r="N57" t="n">
+        <v>971857.6088712635</v>
+      </c>
+      <c r="O57" t="n">
+        <v>281759.6166666667</v>
+      </c>
+      <c r="P57" t="n">
+        <v>458484.5833333334</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>635209.55</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Dead&amp;Co</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Dead&amp;Co</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="E58" t="n">
+        <v>16700</v>
+      </c>
+      <c r="F58" t="n">
+        <v>16575.749171712</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.9925598306414372</v>
+      </c>
+      <c r="H58" t="n">
+        <v>16672.16666666667</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.9983333333333334</v>
+      </c>
+      <c r="J58" t="n">
+        <v>16700</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>571447.8520736976</v>
+      </c>
+      <c r="M58" t="n">
+        <v>772504.8425</v>
+      </c>
+      <c r="N58" t="n">
+        <v>971857.6088712635</v>
+      </c>
+      <c r="O58" t="n">
+        <v>281759.6166666667</v>
+      </c>
+      <c r="P58" t="n">
+        <v>458484.5833333334</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>635209.55</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Dead&amp;Co</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Dead&amp;Co</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>45486</v>
+      </c>
+      <c r="E59" t="n">
+        <v>16700</v>
+      </c>
+      <c r="F59" t="n">
+        <v>16575.749171712</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.9925598306414372</v>
+      </c>
+      <c r="H59" t="n">
+        <v>16672.16666666667</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.9983333333333334</v>
+      </c>
+      <c r="J59" t="n">
+        <v>16700</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>571447.8520736976</v>
+      </c>
+      <c r="M59" t="n">
+        <v>772504.8425</v>
+      </c>
+      <c r="N59" t="n">
+        <v>971857.6088712635</v>
+      </c>
+      <c r="O59" t="n">
+        <v>281759.6166666667</v>
+      </c>
+      <c r="P59" t="n">
+        <v>458484.5833333334</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>635209.55</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
         <v>0</v>
       </c>
     </row>
